--- a/Lista De Temas.xlsx
+++ b/Lista De Temas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="871" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="871" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Antes de Iniciar" sheetId="7" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="Normatividad" sheetId="6" r:id="rId7"/>
     <sheet name="Para Finalizar" sheetId="8" r:id="rId8"/>
     <sheet name="Contenido General" sheetId="9" r:id="rId9"/>
+    <sheet name="Luminarias" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="167">
   <si>
     <t>1 PREELIMINARES</t>
   </si>
@@ -510,6 +510,30 @@
   </si>
   <si>
     <t>temas</t>
+  </si>
+  <si>
+    <t>Como funciona un micro inversor (Incluir Video)</t>
+  </si>
+  <si>
+    <t>Conociendo las luminarias solares</t>
+  </si>
+  <si>
+    <t>Estructura</t>
+  </si>
+  <si>
+    <t>Funcionamiento</t>
+  </si>
+  <si>
+    <t>Montaje</t>
+  </si>
+  <si>
+    <t>Mantenimiento</t>
+  </si>
+  <si>
+    <t>Composición</t>
+  </si>
+  <si>
+    <t>Tipos de luminarias</t>
   </si>
 </sst>
 </file>
@@ -872,7 +896,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,12 +994,87 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,7 +1525,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:B27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,7 +1749,7 @@
         <v>2.1</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,7 +2023,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,7 +2233,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
